--- a/data/Fig_S2.xlsx
+++ b/data/Fig_S2.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10504"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8104158D-0437-5B45-A1A9-B6CF22B47374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0-9" sheetId="1" r:id="rId1"/>
-    <sheet name="10-19" sheetId="2" r:id="rId2"/>
-    <sheet name="20-29" sheetId="3" r:id="rId3"/>
-    <sheet name="30-39" sheetId="4" r:id="rId4"/>
-    <sheet name="40-49" sheetId="5" r:id="rId5"/>
-    <sheet name="50-59" sheetId="6" r:id="rId6"/>
-    <sheet name="60-69" sheetId="7" r:id="rId7"/>
-    <sheet name="70-79" sheetId="8" r:id="rId8"/>
-    <sheet name="80 or above" sheetId="9" r:id="rId9"/>
+    <sheet name="Fig_S2a" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig_S2b" sheetId="2" r:id="rId2"/>
+    <sheet name="Fig_S2c" sheetId="3" r:id="rId3"/>
+    <sheet name="Fig_S2d" sheetId="4" r:id="rId4"/>
+    <sheet name="Fig_S2e" sheetId="5" r:id="rId5"/>
+    <sheet name="Fig_S2f" sheetId="6" r:id="rId6"/>
+    <sheet name="Fig_S2g" sheetId="7" r:id="rId7"/>
+    <sheet name="Fig_S2h" sheetId="8" r:id="rId8"/>
+    <sheet name="Fig_S2i" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,19 +379,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -420,7 +431,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -440,7 +451,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -460,7 +471,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -480,7 +491,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -500,7 +511,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5.35</v>
       </c>
@@ -520,7 +531,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -540,7 +551,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -560,7 +571,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -580,7 +591,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -600,7 +611,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -620,7 +631,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -640,7 +651,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -660,7 +671,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>10.23</v>
       </c>
@@ -680,7 +691,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -700,7 +711,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -720,7 +731,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -740,7 +751,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>7.13</v>
       </c>
@@ -760,7 +771,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -780,7 +791,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -800,7 +811,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -820,7 +831,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -840,7 +851,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -860,7 +871,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -880,7 +891,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>4.3899999999999997</v>
       </c>
@@ -900,7 +911,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C27" s="1">
         <v>3.9</v>
       </c>
@@ -914,7 +925,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C28" s="1">
         <v>3.9</v>
       </c>
@@ -925,7 +936,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E29" s="1">
         <v>3.9</v>
       </c>
@@ -933,7 +944,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E30" s="1">
         <v>3.9</v>
       </c>
@@ -941,7 +952,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E31" s="1">
         <v>3.9</v>
       </c>
@@ -949,7 +960,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E32" s="1">
         <v>3.9</v>
       </c>
@@ -957,7 +968,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E33" s="1">
         <v>3.9</v>
       </c>
@@ -971,19 +982,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -1023,7 +1034,7 @@
         <v>663.81</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -1043,7 +1054,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -1063,7 +1074,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -1083,7 +1094,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -1103,7 +1114,7 @@
         <v>144.47</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -1123,7 +1134,7 @@
         <v>407.75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -1143,7 +1154,7 @@
         <v>736.88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -1163,7 +1174,7 @@
         <v>533.66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>179.87</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -1203,7 +1214,7 @@
         <v>11.31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -1223,7 +1234,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -1243,7 +1254,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -1263,7 +1274,7 @@
         <v>430.29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -1283,7 +1294,7 @@
         <v>176.21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -1303,7 +1314,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -1323,7 +1334,7 @@
         <v>126.06</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -1363,7 +1374,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>4.17</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>180.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -1403,7 +1414,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>6.34</v>
       </c>
@@ -1423,7 +1434,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -1443,7 +1454,7 @@
         <v>204.53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>28.47</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -1483,7 +1494,7 @@
         <v>465.63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -1503,7 +1514,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -1523,7 +1534,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -1543,7 +1554,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -1563,7 +1574,7 @@
         <v>651.85</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -1583,7 +1594,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>4.92</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -1623,7 +1634,7 @@
         <v>639.26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>4.2</v>
       </c>
@@ -1654,7 +1665,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>3.9</v>
       </c>
@@ -1668,19 +1679,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -1720,7 +1731,7 @@
         <v>672.24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -1740,7 +1751,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -1760,7 +1771,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>5.59</v>
       </c>
@@ -1780,7 +1791,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -1800,7 +1811,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -1820,7 +1831,7 @@
         <v>266.94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -1840,7 +1851,7 @@
         <v>485.57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -1860,7 +1871,7 @@
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -1880,7 +1891,7 @@
         <v>474.34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -1900,7 +1911,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -1920,7 +1931,7 @@
         <v>532.79999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -1940,7 +1951,7 @@
         <v>33.08</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -1960,7 +1971,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1980,7 +1991,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -2000,7 +2011,7 @@
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -2020,7 +2031,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>779.55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -2060,7 +2071,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -2080,7 +2091,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -2100,7 +2111,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -2120,7 +2131,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -2140,7 +2151,7 @@
         <v>7.38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -2160,7 +2171,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -2180,7 +2191,7 @@
         <v>194.73</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -2200,7 +2211,7 @@
         <v>37.19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -2220,7 +2231,7 @@
         <v>518.14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -2240,7 +2251,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -2260,7 +2271,7 @@
         <v>239.56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -2280,7 +2291,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -2300,7 +2311,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -2320,7 +2331,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -2340,7 +2351,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>3.9</v>
       </c>
@@ -2354,7 +2365,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <v>3.9</v>
       </c>
@@ -2365,19 +2376,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -2417,7 +2428,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -2437,7 +2448,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -2457,7 +2468,7 @@
         <v>81.33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -2477,7 +2488,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -2497,7 +2508,7 @@
         <v>319.92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -2537,7 +2548,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -2557,7 +2568,7 @@
         <v>88.25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -2577,7 +2588,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -2597,7 +2608,7 @@
         <v>65.209999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -2617,7 +2628,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -2637,7 +2648,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -2657,7 +2668,7 @@
         <v>88.21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -2677,7 +2688,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -2697,7 +2708,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -2717,7 +2728,7 @@
         <v>94.99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -2737,7 +2748,7 @@
         <v>73.95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -2757,7 +2768,7 @@
         <v>37.35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -2777,7 +2788,7 @@
         <v>70.23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>6.37</v>
       </c>
@@ -2797,7 +2808,7 @@
         <v>414.51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -2817,7 +2828,7 @@
         <v>15.39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -2837,7 +2848,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -2857,7 +2868,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -2877,7 +2888,7 @@
         <v>79.91</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -2897,7 +2908,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -2917,7 +2928,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -2937,7 +2948,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -2957,7 +2968,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -2977,7 +2988,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -2997,7 +3008,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -3017,7 +3028,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -3037,7 +3048,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>3.9</v>
       </c>
@@ -3051,7 +3062,7 @@
         <v>12.21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>3.9</v>
       </c>
@@ -3065,7 +3076,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>3.9</v>
       </c>
@@ -3079,19 +3090,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3111,7 +3122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -3131,7 +3142,7 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -3151,7 +3162,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -3171,7 +3182,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -3191,7 +3202,7 @@
         <v>67.959999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -3211,7 +3222,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -3231,7 +3242,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -3251,7 +3262,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -3271,7 +3282,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>4.18</v>
       </c>
@@ -3291,7 +3302,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>4.84</v>
       </c>
@@ -3311,7 +3322,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -3331,7 +3342,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -3351,7 +3362,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -3371,7 +3382,7 @@
         <v>17.09</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -3391,7 +3402,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>4.24</v>
       </c>
@@ -3411,7 +3422,7 @@
         <v>65.28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>5.73</v>
       </c>
@@ -3431,7 +3442,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -3451,7 +3462,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -3471,7 +3482,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -3491,7 +3502,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -3511,7 +3522,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -3531,7 +3542,7 @@
         <v>371.38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>5.58</v>
       </c>
@@ -3551,7 +3562,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -3571,7 +3582,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -3591,7 +3602,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -3611,7 +3622,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -3631,7 +3642,7 @@
         <v>453.76</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -3651,7 +3662,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -3671,7 +3682,7 @@
         <v>66.44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -3691,7 +3702,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -3711,7 +3722,7 @@
         <v>37.61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -3731,7 +3742,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -3751,7 +3762,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>3.9</v>
       </c>
@@ -3771,7 +3782,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>3.9</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>3.9</v>
       </c>
@@ -3808,7 +3819,7 @@
         <v>92.78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D37" s="1">
         <v>37.33</v>
       </c>
@@ -3825,19 +3836,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3857,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -3877,7 +3888,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -3897,7 +3908,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -3917,7 +3928,7 @@
         <v>57.09</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>20.239999999999998</v>
       </c>
@@ -3937,7 +3948,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -3957,7 +3968,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -3977,7 +3988,7 @@
         <v>44.54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -3997,7 +4008,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -4017,7 +4028,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -4037,7 +4048,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -4057,7 +4068,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -4077,7 +4088,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -4097,7 +4108,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -4117,7 +4128,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -4137,7 +4148,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -4157,7 +4168,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -4177,7 +4188,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -4197,7 +4208,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -4217,7 +4228,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -4237,7 +4248,7 @@
         <v>351.03</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -4257,7 +4268,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -4277,7 +4288,7 @@
         <v>150.08000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -4297,7 +4308,7 @@
         <v>92.17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -4317,7 +4328,7 @@
         <v>729.25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -4337,7 +4348,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -4357,7 +4368,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -4377,7 +4388,7 @@
         <v>117.97</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>6.61</v>
       </c>
@@ -4397,7 +4408,7 @@
         <v>401.01</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -4417,7 +4428,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -4437,7 +4448,7 @@
         <v>109.12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -4457,7 +4468,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -4477,7 +4488,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -4497,7 +4508,7 @@
         <v>30.67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="1">
         <v>3.9</v>
       </c>
@@ -4514,7 +4525,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <v>3.9</v>
       </c>
@@ -4531,7 +4542,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B36" s="1">
         <v>3.9</v>
       </c>
@@ -4548,7 +4559,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D37" s="1">
         <v>3.9</v>
       </c>
@@ -4565,19 +4576,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4597,7 +4608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -4617,7 +4628,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -4637,7 +4648,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -4657,7 +4668,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -4677,7 +4688,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -4697,7 +4708,7 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -4717,7 +4728,7 @@
         <v>70.98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -4737,7 +4748,7 @@
         <v>64.13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -4757,7 +4768,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -4777,7 +4788,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -4797,7 +4808,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -4817,7 +4828,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -4837,7 +4848,7 @@
         <v>608.66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -4857,7 +4868,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -4877,7 +4888,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>5.19</v>
       </c>
@@ -4897,7 +4908,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -4917,7 +4928,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -4937,7 +4948,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -4957,7 +4968,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -4977,7 +4988,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -4997,7 +5008,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -5017,7 +5028,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -5037,7 +5048,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -5057,7 +5068,7 @@
         <v>26.66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -5077,7 +5088,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -5097,7 +5108,7 @@
         <v>10.77</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -5117,7 +5128,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -5137,7 +5148,7 @@
         <v>191.61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -5157,7 +5168,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -5177,7 +5188,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -5197,7 +5208,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>4.6399999999999997</v>
       </c>
@@ -5217,7 +5228,7 @@
         <v>160.05000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -5237,7 +5248,7 @@
         <v>122.63</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>3.9</v>
       </c>
@@ -5257,7 +5268,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <v>11.38</v>
       </c>
@@ -5274,7 +5285,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B36" s="1">
         <v>65.680000000000007</v>
       </c>
@@ -5291,7 +5302,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D37" s="1">
         <v>5.88</v>
       </c>
@@ -5308,19 +5319,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5340,7 +5351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -5360,7 +5371,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -5380,7 +5391,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -5400,7 +5411,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -5420,7 +5431,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -5440,7 +5451,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -5460,7 +5471,7 @@
         <v>133.61000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -5480,7 +5491,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -5500,7 +5511,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -5520,7 +5531,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -5540,7 +5551,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>6.39</v>
       </c>
@@ -5560,7 +5571,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -5580,7 +5591,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>4.51</v>
       </c>
@@ -5600,7 +5611,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -5620,7 +5631,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -5640,7 +5651,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -5660,7 +5671,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>4.33</v>
       </c>
@@ -5680,7 +5691,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>4.1100000000000003</v>
       </c>
@@ -5700,7 +5711,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -5720,7 +5731,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>4.22</v>
       </c>
@@ -5740,7 +5751,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -5760,7 +5771,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -5780,7 +5791,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -5800,7 +5811,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -5820,7 +5831,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>4.38</v>
       </c>
@@ -5840,7 +5851,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -5860,7 +5871,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -5880,7 +5891,7 @@
         <v>425.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -5900,7 +5911,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -5920,7 +5931,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -5940,7 +5951,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -5960,7 +5971,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="1">
         <v>6.47</v>
       </c>
@@ -5977,7 +5988,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="1">
         <v>3.9</v>
       </c>
@@ -5988,7 +5999,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <v>3.9</v>
       </c>
@@ -5996,7 +6007,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="1">
         <v>3.9</v>
       </c>
@@ -6007,19 +6018,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6039,7 +6050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -6059,7 +6070,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -6079,7 +6090,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -6099,7 +6110,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -6119,7 +6130,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -6139,7 +6150,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -6159,7 +6170,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -6179,7 +6190,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -6199,7 +6210,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -6219,7 +6230,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -6239,7 +6250,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>5.18</v>
       </c>
@@ -6259,7 +6270,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -6279,7 +6290,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -6299,7 +6310,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -6319,7 +6330,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -6339,7 +6350,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -6359,7 +6370,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -6379,7 +6390,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -6399,7 +6410,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -6419,7 +6430,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -6439,7 +6450,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>30.07</v>
       </c>
@@ -6459,7 +6470,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -6479,7 +6490,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -6499,7 +6510,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -6519,7 +6530,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -6539,7 +6550,7 @@
         <v>9.57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -6559,7 +6570,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -6579,7 +6590,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>4.82</v>
       </c>
@@ -6599,7 +6610,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>4.38</v>
       </c>
@@ -6619,7 +6630,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -6639,7 +6650,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>10.93</v>
       </c>
@@ -6659,7 +6670,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>5.67</v>
       </c>
@@ -6679,7 +6690,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>4.22</v>
       </c>
@@ -6693,7 +6704,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <v>3.9</v>
       </c>

--- a/data/Fig_S2.xlsx
+++ b/data/Fig_S2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8104158D-0437-5B45-A1A9-B6CF22B47374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD4E59-DCDA-4330-8330-FE75F22CC47E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_S2a" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Fig_S2g" sheetId="7" r:id="rId7"/>
     <sheet name="Fig_S2h" sheetId="8" r:id="rId8"/>
     <sheet name="Fig_S2i" sheetId="9" r:id="rId9"/>
+    <sheet name="Figure" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,8 +30,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -115,6 +116,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481584</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>155448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906175DE-D910-4D03-89F7-C94B9FCFF1C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5967984" cy="6441948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,12 +442,12 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -431,7 +487,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -451,7 +507,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -471,7 +527,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -491,7 +547,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -511,7 +567,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5.35</v>
       </c>
@@ -531,7 +587,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -551,7 +607,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -571,7 +627,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -591,7 +647,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -611,7 +667,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -631,7 +687,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -651,7 +707,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -671,7 +727,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>10.23</v>
       </c>
@@ -691,7 +747,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -711,7 +767,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -731,7 +787,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -751,7 +807,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>7.13</v>
       </c>
@@ -771,7 +827,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -791,7 +847,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -811,7 +867,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -831,7 +887,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -851,7 +907,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -871,7 +927,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -891,7 +947,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4.3899999999999997</v>
       </c>
@@ -911,7 +967,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>3.9</v>
       </c>
@@ -925,7 +981,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>3.9</v>
       </c>
@@ -936,7 +992,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="1">
         <v>3.9</v>
       </c>
@@ -944,7 +1000,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" s="1">
         <v>3.9</v>
       </c>
@@ -952,7 +1008,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="1">
         <v>3.9</v>
       </c>
@@ -960,7 +1016,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" s="1">
         <v>3.9</v>
       </c>
@@ -968,7 +1024,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>3.9</v>
       </c>
@@ -978,6 +1034,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7481DE-23AA-4545-AB23-29AD70A660A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -989,12 +1062,12 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -1034,7 +1107,7 @@
         <v>663.81</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -1054,7 +1127,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -1074,7 +1147,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -1094,7 +1167,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -1114,7 +1187,7 @@
         <v>144.47</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -1134,7 +1207,7 @@
         <v>407.75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -1154,7 +1227,7 @@
         <v>736.88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -1174,7 +1247,7 @@
         <v>533.66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -1194,7 +1267,7 @@
         <v>179.87</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -1214,7 +1287,7 @@
         <v>11.31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -1234,7 +1307,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -1254,7 +1327,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -1274,7 +1347,7 @@
         <v>430.29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -1294,7 +1367,7 @@
         <v>176.21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -1314,7 +1387,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -1334,7 +1407,7 @@
         <v>126.06</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -1354,7 +1427,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -1374,7 +1447,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4.17</v>
       </c>
@@ -1394,7 +1467,7 @@
         <v>180.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -1414,7 +1487,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6.34</v>
       </c>
@@ -1434,7 +1507,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -1454,7 +1527,7 @@
         <v>204.53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -1474,7 +1547,7 @@
         <v>28.47</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -1494,7 +1567,7 @@
         <v>465.63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -1514,7 +1587,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -1534,7 +1607,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -1554,7 +1627,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -1574,7 +1647,7 @@
         <v>651.85</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -1594,7 +1667,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>4.92</v>
       </c>
@@ -1614,7 +1687,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -1634,7 +1707,7 @@
         <v>639.26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -1654,7 +1727,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>4.2</v>
       </c>
@@ -1665,7 +1738,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3.9</v>
       </c>
@@ -1675,6 +1748,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1686,12 +1760,12 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -1731,7 +1805,7 @@
         <v>672.24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -1751,7 +1825,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -1771,7 +1845,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5.59</v>
       </c>
@@ -1791,7 +1865,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -1811,7 +1885,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -1831,7 +1905,7 @@
         <v>266.94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -1851,7 +1925,7 @@
         <v>485.57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -1871,7 +1945,7 @@
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -1891,7 +1965,7 @@
         <v>474.34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -1911,7 +1985,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -1931,7 +2005,7 @@
         <v>532.79999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -1951,7 +2025,7 @@
         <v>33.08</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -1971,7 +2045,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1991,7 +2065,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -2011,7 +2085,7 @@
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -2031,7 +2105,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -2051,7 +2125,7 @@
         <v>779.55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -2071,7 +2145,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -2091,7 +2165,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -2111,7 +2185,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -2131,7 +2205,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -2151,7 +2225,7 @@
         <v>7.38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -2171,7 +2245,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -2191,7 +2265,7 @@
         <v>194.73</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -2211,7 +2285,7 @@
         <v>37.19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -2231,7 +2305,7 @@
         <v>518.14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -2251,7 +2325,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -2271,7 +2345,7 @@
         <v>239.56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -2291,7 +2365,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -2311,7 +2385,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -2331,7 +2405,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -2351,7 +2425,7 @@
         <v>54.59</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3.9</v>
       </c>
@@ -2365,13 +2439,14 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>3.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2383,12 +2458,12 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2408,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -2428,7 +2503,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -2448,7 +2523,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -2468,7 +2543,7 @@
         <v>81.33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -2488,7 +2563,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -2508,7 +2583,7 @@
         <v>319.92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -2528,7 +2603,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -2548,7 +2623,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -2568,7 +2643,7 @@
         <v>88.25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -2588,7 +2663,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -2608,7 +2683,7 @@
         <v>65.209999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -2628,7 +2703,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -2648,7 +2723,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -2668,7 +2743,7 @@
         <v>88.21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -2688,7 +2763,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -2708,7 +2783,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -2728,7 +2803,7 @@
         <v>94.99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -2748,7 +2823,7 @@
         <v>73.95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -2768,7 +2843,7 @@
         <v>37.35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -2788,7 +2863,7 @@
         <v>70.23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6.37</v>
       </c>
@@ -2808,7 +2883,7 @@
         <v>414.51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -2828,7 +2903,7 @@
         <v>15.39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -2848,7 +2923,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -2868,7 +2943,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -2888,7 +2963,7 @@
         <v>79.91</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -2908,7 +2983,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -2928,7 +3003,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -2948,7 +3023,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -2968,7 +3043,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -2988,7 +3063,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -3008,7 +3083,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -3028,7 +3103,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -3048,7 +3123,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3.9</v>
       </c>
@@ -3062,7 +3137,7 @@
         <v>12.21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3.9</v>
       </c>
@@ -3076,7 +3151,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>3.9</v>
       </c>
@@ -3086,6 +3161,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3097,12 +3173,12 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3122,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -3142,7 +3218,7 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -3162,7 +3238,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -3182,7 +3258,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -3202,7 +3278,7 @@
         <v>67.959999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -3222,7 +3298,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -3242,7 +3318,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -3262,7 +3338,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -3282,7 +3358,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4.18</v>
       </c>
@@ -3302,7 +3378,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4.84</v>
       </c>
@@ -3322,7 +3398,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -3342,7 +3418,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -3362,7 +3438,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -3382,7 +3458,7 @@
         <v>17.09</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -3402,7 +3478,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>4.24</v>
       </c>
@@ -3422,7 +3498,7 @@
         <v>65.28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5.73</v>
       </c>
@@ -3442,7 +3518,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -3462,7 +3538,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -3482,7 +3558,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -3502,7 +3578,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -3522,7 +3598,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -3542,7 +3618,7 @@
         <v>371.38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>5.58</v>
       </c>
@@ -3562,7 +3638,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -3582,7 +3658,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -3602,7 +3678,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -3622,7 +3698,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -3642,7 +3718,7 @@
         <v>453.76</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -3662,7 +3738,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -3682,7 +3758,7 @@
         <v>66.44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -3702,7 +3778,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -3722,7 +3798,7 @@
         <v>37.61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -3742,7 +3818,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -3762,7 +3838,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3.9</v>
       </c>
@@ -3782,7 +3858,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3.9</v>
       </c>
@@ -3802,7 +3878,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>3.9</v>
       </c>
@@ -3819,7 +3895,7 @@
         <v>92.78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D37" s="1">
         <v>37.33</v>
       </c>
@@ -3832,6 +3908,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3843,12 +3920,12 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3868,7 +3945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -3888,7 +3965,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -3908,7 +3985,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -3928,7 +4005,7 @@
         <v>57.09</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20.239999999999998</v>
       </c>
@@ -3948,7 +4025,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -3968,7 +4045,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -3988,7 +4065,7 @@
         <v>44.54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -4008,7 +4085,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -4028,7 +4105,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -4048,7 +4125,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -4068,7 +4145,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -4088,7 +4165,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -4108,7 +4185,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -4128,7 +4205,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -4148,7 +4225,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -4168,7 +4245,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -4188,7 +4265,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -4208,7 +4285,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -4228,7 +4305,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -4248,7 +4325,7 @@
         <v>351.03</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -4268,7 +4345,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -4288,7 +4365,7 @@
         <v>150.08000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -4308,7 +4385,7 @@
         <v>92.17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -4328,7 +4405,7 @@
         <v>729.25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -4348,7 +4425,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -4368,7 +4445,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -4388,7 +4465,7 @@
         <v>117.97</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>6.61</v>
       </c>
@@ -4408,7 +4485,7 @@
         <v>401.01</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -4428,7 +4505,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -4448,7 +4525,7 @@
         <v>109.12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -4468,7 +4545,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -4488,7 +4565,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -4508,7 +4585,7 @@
         <v>30.67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>3.9</v>
       </c>
@@ -4525,7 +4602,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>3.9</v>
       </c>
@@ -4542,7 +4619,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>3.9</v>
       </c>
@@ -4559,7 +4636,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D37" s="1">
         <v>3.9</v>
       </c>
@@ -4572,6 +4649,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4583,12 +4661,12 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4608,7 +4686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -4628,7 +4706,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -4648,7 +4726,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -4668,7 +4746,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -4688,7 +4766,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -4708,7 +4786,7 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -4728,7 +4806,7 @@
         <v>70.98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -4748,7 +4826,7 @@
         <v>64.13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -4768,7 +4846,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -4788,7 +4866,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -4808,7 +4886,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -4828,7 +4906,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -4848,7 +4926,7 @@
         <v>608.66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -4868,7 +4946,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -4888,7 +4966,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5.19</v>
       </c>
@@ -4908,7 +4986,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -4928,7 +5006,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -4948,7 +5026,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -4968,7 +5046,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -4988,7 +5066,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -5008,7 +5086,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -5028,7 +5106,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -5048,7 +5126,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -5068,7 +5146,7 @@
         <v>26.66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -5088,7 +5166,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -5108,7 +5186,7 @@
         <v>10.77</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -5128,7 +5206,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -5148,7 +5226,7 @@
         <v>191.61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -5168,7 +5246,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -5188,7 +5266,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -5208,7 +5286,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>4.6399999999999997</v>
       </c>
@@ -5228,7 +5306,7 @@
         <v>160.05000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -5248,7 +5326,7 @@
         <v>122.63</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3.9</v>
       </c>
@@ -5268,7 +5346,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>11.38</v>
       </c>
@@ -5285,7 +5363,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>65.680000000000007</v>
       </c>
@@ -5302,7 +5380,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D37" s="1">
         <v>5.88</v>
       </c>
@@ -5315,6 +5393,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5326,12 +5405,12 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5351,7 +5430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -5371,7 +5450,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -5391,7 +5470,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -5411,7 +5490,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -5431,7 +5510,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -5451,7 +5530,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -5471,7 +5550,7 @@
         <v>133.61000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -5491,7 +5570,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -5511,7 +5590,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -5531,7 +5610,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -5551,7 +5630,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6.39</v>
       </c>
@@ -5571,7 +5650,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -5591,7 +5670,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4.51</v>
       </c>
@@ -5611,7 +5690,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -5631,7 +5710,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -5651,7 +5730,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -5671,7 +5750,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4.33</v>
       </c>
@@ -5691,7 +5770,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>4.1100000000000003</v>
       </c>
@@ -5711,7 +5790,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -5731,7 +5810,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4.22</v>
       </c>
@@ -5751,7 +5830,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -5771,7 +5850,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -5791,7 +5870,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -5811,7 +5890,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -5831,7 +5910,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4.38</v>
       </c>
@@ -5851,7 +5930,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -5871,7 +5950,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -5891,7 +5970,7 @@
         <v>425.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -5911,7 +5990,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -5931,7 +6010,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -5951,7 +6030,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -5971,7 +6050,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>6.47</v>
       </c>
@@ -5988,7 +6067,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>3.9</v>
       </c>
@@ -5999,7 +6078,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>3.9</v>
       </c>
@@ -6007,13 +6086,14 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>3.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6021,16 +6101,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +6130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -6070,7 +6150,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -6090,7 +6170,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -6110,7 +6190,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -6130,7 +6210,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -6150,7 +6230,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -6170,7 +6250,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -6190,7 +6270,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -6210,7 +6290,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -6230,7 +6310,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -6250,7 +6330,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5.18</v>
       </c>
@@ -6270,7 +6350,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -6290,7 +6370,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -6310,7 +6390,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -6330,7 +6410,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -6350,7 +6430,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -6370,7 +6450,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -6390,7 +6470,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -6410,7 +6490,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -6430,7 +6510,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -6450,7 +6530,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>30.07</v>
       </c>
@@ -6470,7 +6550,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -6490,7 +6570,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -6510,7 +6590,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -6530,7 +6610,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -6550,7 +6630,7 @@
         <v>9.57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -6570,7 +6650,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -6590,7 +6670,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>4.82</v>
       </c>
@@ -6610,7 +6690,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>4.38</v>
       </c>
@@ -6630,7 +6710,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -6650,7 +6730,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>10.93</v>
       </c>
@@ -6670,7 +6750,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>5.67</v>
       </c>
@@ -6690,7 +6770,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>4.22</v>
       </c>
@@ -6704,7 +6784,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>3.9</v>
       </c>
